--- a/py/templates/网址生成.xlsx
+++ b/py/templates/网址生成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" updateLinks="never"/>
   <bookViews>
-    <workbookView windowWidth="27570" windowHeight="12885" activeTab="5"/>
+    <workbookView windowWidth="22680" windowHeight="10185" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="记录" sheetId="16" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="197">
   <si>
     <t>生成的文件名</t>
   </si>
@@ -366,40 +366,88 @@
     <t>黄牛控制</t>
   </si>
   <si>
-    <t>中间网址</t>
+    <t>网址点击不返回</t>
   </si>
   <si>
-    <t>桌面常见启动</t>
+    <t>打印每日一记</t>
   </si>
   <si>
-    <t>D:\Seafile\私人资料库\个人研究\9宫格启动菜单改进\桌面常见启动\桌面常见启动.ahk</t>
+    <t>\jb\打印?文件=D:\Seafile\私人资料库\个人研究\每日一卷\每日一卷_样卷.docx</t>
+  </si>
+  <si>
+    <t>\jb\打开?路径=D:\Seafile\私人资料库\个人研究\9宫格启动菜单改进\桌面常见启动\桌面常见启动.ahk</t>
+  </si>
+  <si>
+    <t>切换全屏</t>
+  </si>
+  <si>
+    <t>临海天气</t>
+  </si>
+  <si>
+    <t>\jb\打开?路径=http:\\www.weather.com.cn/weather1d/101210610.shtml#input</t>
+  </si>
+  <si>
+    <t>D:\Seafile\私人资料库\个人研究\桌面悬浮窗\悬浮工具箱.ahk</t>
   </si>
   <si>
     <t>局域网文件管理</t>
   </si>
   <si>
+    <t>\jb\打开?路径=%r34%\1王进利私人资料\0个人保密文件\局域网文件管理.ahk</t>
+  </si>
+  <si>
     <t>d:\Seafile\私人资料库\1王进利私人资料\0个人保密文件\局域网文件管理.ahk</t>
   </si>
   <si>
-    <t>悬浮工具箱</t>
+    <t>原始网址</t>
   </si>
   <si>
-    <t>D:\Seafile\私人资料库\个人研究\桌面悬浮窗\悬浮工具箱.ahk</t>
+    <t>API站点</t>
   </si>
   <si>
-    <t>白噪音网站</t>
+    <t>\jb</t>
+  </si>
+  <si>
+    <t>D:\Seafile\私人资料库\个人研究\websocket\启动uvicorn.bat</t>
+  </si>
+  <si>
+    <t>修改菜单</t>
+  </si>
+  <si>
+    <t>\jb\打开?路径=%r34%\个人研究\APIHub\py\templates\网址生成.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Seafile\私人资料库\个人研究\websocket\templates\网址生成.xlsx</t>
+  </si>
+  <si>
+    <t>191重要资料</t>
+  </si>
+  <si>
+    <t>\jb\打开?路径=%r34%\1王进利私人资料\0个人保密文件\打开191重要资料.bat</t>
+  </si>
+  <si>
+    <t>D:\Seafile\私人资料库\1王进利私人资料\0个人保密文件\打开191重要资料.bat</t>
+  </si>
+  <si>
+    <t>离开一会</t>
+  </si>
+  <si>
+    <t>\jb\下载并运行程序?程序名=锁屏</t>
   </si>
   <si>
     <t>https:\\www.ppbzy.com</t>
   </si>
   <si>
-    <t>191重要资料</t>
+    <t>科研管理系统</t>
   </si>
   <si>
-    <t>D:\Seafile\私人资料库\1王进利私人资料\0个人保密文件\打开191重要资料.bat</t>
+    <t>\jb\打开?路径=https:\\kycxfwpt.tzc.edu.cn/userAction!do_casLogin.action</t>
   </si>
   <si>
     <t>存档文件</t>
+  </si>
+  <si>
+    <t>\jb\打开?路径=%r34%\0存档文件\老黄牛存档文件.xlsx</t>
   </si>
   <si>
     <t>%r34%\0存档文件\老黄牛存档文件.xlsx</t>
@@ -408,28 +456,77 @@
     <t>行政杂事</t>
   </si>
   <si>
+    <t>\jb\打开?路径=%r34%\分类工作\行政_人文行政杂事\人文行政杂事.xlsm</t>
+  </si>
+  <si>
     <t>%r34%\分类工作\行政_人文行政杂事\人文行政杂事.xlsm</t>
   </si>
   <si>
     <t>科研工作</t>
   </si>
   <si>
+    <t>\jb\打开?路径=%r34%\分类工作\科研_项目申报\正在申报的项目.xlsm</t>
+  </si>
+  <si>
     <t>%r34%\分类工作\科研_项目申报\正在申报的项目.xlsm</t>
   </si>
   <si>
-    <t>启动服务器</t>
+    <t>学术讲座</t>
   </si>
   <si>
-    <t>D:\Seafile\私人资料库\个人研究\websocket\启动uvicorn.bat</t>
+    <t>\jb\打开?路径=%r34%\分类工作\科研_学术讲座\人文学术讲座.xlsm</t>
   </si>
   <si>
-    <t>切换全屏</t>
+    <t>\jb\打开?路径=https:\\i.tzc.edu.cn/home</t>
   </si>
   <si>
-    <t>修改菜单</t>
+    <t>\jb\打开?路径=D:\index.lnk</t>
   </si>
   <si>
-    <t>D:\Seafile\私人资料库\个人研究\websocket\templates\网址生成.xlsx</t>
+    <t>向下</t>
+  </si>
+  <si>
+    <t>jb\%E6%A8%A1%E6%8B%9F%E8%BE%93%E5%87%BA%E6%8C%89%E9%94%AEpy?key1=down&amp;key2=&amp;key3=</t>
+  </si>
+  <si>
+    <t>向上</t>
+  </si>
+  <si>
+    <t>jb\%E6%A8%A1%E6%8B%9F%E8%BE%93%E5%87%BA%E6%8C%89%E9%94%AEpy?key1=up&amp;key2=&amp;key3=</t>
+  </si>
+  <si>
+    <t>现在桌面</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>img</t>
+    </r>
+  </si>
+  <si>
+    <t>D:\老黄牛小工具\RunAny\r34_ahk\多媒体\桌面大鹅.ahk</t>
+  </si>
+  <si>
+    <t>悬浮工具箱</t>
+  </si>
+  <si>
+    <t>\jb\打开?路径=%r34%\个人研究\桌面悬浮窗\悬浮工具箱.ahk</t>
   </si>
   <si>
     <t>手机短号</t>
@@ -648,18 +745,12 @@
     <t>html</t>
   </si>
   <si>
-    <t>原始网址</t>
-  </si>
-  <si>
     <t xml:space="preserve">     &lt;div class="grid-item"&gt;
       &lt;a href="参数05"&gt;参数04&lt;/a&gt;
     &lt;/div&gt;</t>
   </si>
   <si>
     <t>参数04：网站名；参数05：网址</t>
-  </si>
-  <si>
-    <t>网址点击不返回</t>
   </si>
   <si>
     <t xml:space="preserve">     &lt;div class="grid-item"&gt;
@@ -721,7 +812,7 @@
       left: 0;
       width: 100%; /* 扩展到外部的div */
       height: 100%; /* 扩展到外部的div */
-      font-size:24px;  /* 全屏正常,非全屏太小 */
+      font-size:66px;  /* 全屏正常,非全屏太小 */
       color: #000;
       padding: 10px;
       text-decoration: none;
@@ -757,6 +848,12 @@
     <t>&lt;/div&gt;
 &lt;/div&gt;
   &lt;script&gt;
+    function playmp3(url) {
+    // 创建 Audio 对象
+    var audio = new Audio(url);
+    // 播放音乐
+    audio.play();
+    }
     function sendLinkText(event) {
       event.preventDefault(); // 阻止默认的链接跳转行为
       var linkText = event.target.href
@@ -784,6 +881,7 @@
       .catch(function(error) {
         console.error('Error:', error);
       });
+      playmp3("../static/click.mp3")
   }
 function sendPostRequest(url, data) {
   return fetch(url, {
@@ -842,8 +940,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -856,7 +954,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3" tint="0.399395733512375"/>
+      <color theme="3" tint="0.399365215002899"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -925,6 +1023,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -933,29 +1062,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -970,6 +1077,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -977,17 +1115,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -998,9 +1129,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1015,33 +1145,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1050,14 +1156,6 @@
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1099,7 +1197,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799920651875362"/>
+        <fgColor theme="4" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,7 +1209,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799920651875362"/>
+        <fgColor theme="6" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,13 +1227,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,25 +1311,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,43 +1323,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,13 +1359,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1249,67 +1383,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1689,30 +1787,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1730,20 +1804,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1772,6 +1850,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1792,10 +1890,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1804,144 +1902,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2142,17 +2240,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="52" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -2394,8 +2492,8 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
     <cellStyle name="常规 2" xfId="50"/>
     <cellStyle name="常规 3" xfId="51"/>
-    <cellStyle name="超链接 2" xfId="52"/>
-    <cellStyle name="常规 5" xfId="53"/>
+    <cellStyle name="常规 5" xfId="52"/>
+    <cellStyle name="超链接 2" xfId="53"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2429,13 +2527,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4523105</xdr:colOff>
+      <xdr:colOff>4523740</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>46990</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>357505</xdr:rowOff>
     </xdr:to>
@@ -2782,22 +2880,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.6666666666667" style="64" customWidth="1"/>
-    <col min="2" max="2" width="38.7416666666667" style="40" customWidth="1"/>
-    <col min="3" max="3" width="11.9166666666667" style="111" customWidth="1"/>
-    <col min="4" max="5" width="7.21666666666667" style="40" customWidth="1"/>
-    <col min="6" max="6" width="7.44166666666667" style="40" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="38.75" style="40" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="111" customWidth="1"/>
+    <col min="4" max="5" width="7.25" style="40" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="40" customWidth="1"/>
     <col min="7" max="7" width="7" style="40" customWidth="1"/>
-    <col min="8" max="10" width="7.21666666666667" style="40" customWidth="1"/>
-    <col min="11" max="11" width="7.10833333333333" style="33" customWidth="1"/>
-    <col min="12" max="12" width="9.21666666666667" style="33" customWidth="1"/>
-    <col min="13" max="15" width="7.21666666666667" style="33" customWidth="1"/>
-    <col min="16" max="16" width="7.44166666666667" style="33" customWidth="1"/>
+    <col min="8" max="10" width="7.25" style="40" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="33" customWidth="1"/>
+    <col min="12" max="12" width="9.25" style="33" customWidth="1"/>
+    <col min="13" max="15" width="7.25" style="33" customWidth="1"/>
+    <col min="16" max="16" width="7.5" style="33" customWidth="1"/>
     <col min="17" max="18" width="9" style="33"/>
     <col min="19" max="16384" width="9" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.05" customHeight="1" spans="1:15">
+    <row r="1" ht="25.15" customHeight="1" spans="1:15">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -2820,7 +2918,7 @@
       <c r="N1" s="49"/>
       <c r="O1" s="78"/>
     </row>
-    <row r="2" ht="25.05" hidden="1" customHeight="1" spans="1:22">
+    <row r="2" ht="25.15" hidden="1" customHeight="1" spans="1:22">
       <c r="A2" s="42" t="s">
         <v>3</v>
       </c>
@@ -2937,14 +3035,14 @@
       <c r="A17" s="94"/>
       <c r="O17" s="81"/>
     </row>
-    <row r="18" ht="13.05" hidden="1" customHeight="1" spans="1:15">
+    <row r="18" ht="13.15" hidden="1" customHeight="1" spans="1:15">
       <c r="A18" s="95"/>
       <c r="B18" s="96"/>
       <c r="C18" s="117"/>
       <c r="D18" s="96"/>
       <c r="O18" s="81"/>
     </row>
-    <row r="19" ht="24.45" customHeight="1" spans="1:15">
+    <row r="19" ht="24.4" customHeight="1" spans="1:15">
       <c r="A19" s="97" t="s">
         <v>6</v>
       </c>
@@ -3502,15 +3600,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.4416666666667" style="64" customWidth="1"/>
-    <col min="2" max="2" width="12.6666666666667" style="40" customWidth="1"/>
-    <col min="3" max="4" width="10.5583333333333" style="40" customWidth="1"/>
-    <col min="5" max="5" width="12.2166666666667" style="40" customWidth="1"/>
-    <col min="6" max="6" width="7.10833333333333" style="40" customWidth="1"/>
-    <col min="7" max="7" width="10.8833333333333" style="40" customWidth="1"/>
-    <col min="8" max="10" width="7.10833333333333" style="40" customWidth="1"/>
-    <col min="11" max="11" width="13.4416666666667" style="33" customWidth="1"/>
-    <col min="12" max="15" width="7.10833333333333" style="33" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="64" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="40" customWidth="1"/>
+    <col min="3" max="4" width="10.5" style="40" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="40" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="40" customWidth="1"/>
+    <col min="8" max="10" width="7.125" style="40" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="33" customWidth="1"/>
+    <col min="12" max="15" width="7.125" style="33" customWidth="1"/>
     <col min="16" max="18" width="9" style="33"/>
     <col min="19" max="16384" width="9" style="40"/>
   </cols>
@@ -3632,14 +3730,14 @@
       <c r="A17" s="94"/>
       <c r="O17" s="81"/>
     </row>
-    <row r="18" ht="70.95" hidden="1" customHeight="1" spans="1:15">
+    <row r="18" ht="70.9" hidden="1" customHeight="1" spans="1:15">
       <c r="A18" s="95"/>
       <c r="B18" s="96"/>
       <c r="C18" s="96"/>
       <c r="D18" s="96"/>
       <c r="O18" s="81"/>
     </row>
-    <row r="19" ht="25.05" customHeight="1" spans="1:15">
+    <row r="19" ht="25.15" customHeight="1" spans="1:15">
       <c r="A19" s="97" t="s">
         <v>6</v>
       </c>
@@ -14824,32 +14922,32 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:XFD116"/>
+  <dimension ref="A1:XFD119"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:E25"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.225" style="37" customWidth="1"/>
-    <col min="2" max="2" width="25.1" style="38" customWidth="1"/>
-    <col min="3" max="3" width="12.4416666666667" style="39" customWidth="1"/>
-    <col min="4" max="4" width="21.3166666666667" style="40" customWidth="1"/>
-    <col min="5" max="5" width="29.2916666666667" style="40" customWidth="1"/>
-    <col min="6" max="7" width="6.66666666666667" style="40" customWidth="1"/>
-    <col min="8" max="8" width="6.66666666666667" style="33" customWidth="1"/>
-    <col min="9" max="9" width="6.66666666666667" style="41" customWidth="1"/>
-    <col min="10" max="10" width="6.66666666666667" style="33" customWidth="1"/>
-    <col min="11" max="11" width="8.21666666666667" style="33" customWidth="1"/>
-    <col min="12" max="12" width="7.21666666666667" style="33" customWidth="1"/>
-    <col min="13" max="13" width="7.66666666666667" style="33" customWidth="1"/>
-    <col min="14" max="14" width="6.66666666666667" style="33" customWidth="1"/>
-    <col min="15" max="15" width="7.21666666666667" style="33" customWidth="1"/>
-    <col min="16" max="16" width="8.66666666666667" style="33" customWidth="1"/>
-    <col min="17" max="17" width="17.2166666666667" style="33" customWidth="1"/>
-    <col min="18" max="18" width="14.6666666666667" style="33" customWidth="1"/>
-    <col min="19" max="19" width="14.6666666666667" style="40" customWidth="1"/>
+    <col min="1" max="1" width="16.25" style="37" customWidth="1"/>
+    <col min="2" max="2" width="25.125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="39" customWidth="1"/>
+    <col min="4" max="4" width="21.375" style="40" customWidth="1"/>
+    <col min="5" max="5" width="29.25" style="40" customWidth="1"/>
+    <col min="6" max="7" width="6.625" style="40" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="41" customWidth="1"/>
+    <col min="10" max="10" width="6.625" style="33" customWidth="1"/>
+    <col min="11" max="11" width="8.25" style="33" customWidth="1"/>
+    <col min="12" max="12" width="7.25" style="33" customWidth="1"/>
+    <col min="13" max="13" width="7.625" style="33" customWidth="1"/>
+    <col min="14" max="14" width="6.625" style="33" customWidth="1"/>
+    <col min="15" max="15" width="7.25" style="33" customWidth="1"/>
+    <col min="16" max="16" width="8.625" style="33" customWidth="1"/>
+    <col min="17" max="17" width="17.25" style="33" customWidth="1"/>
+    <col min="18" max="18" width="14.625" style="33" customWidth="1"/>
+    <col min="19" max="19" width="14.625" style="40" customWidth="1"/>
     <col min="20" max="16384" width="9" style="40"/>
   </cols>
   <sheetData>
@@ -31242,7 +31340,7 @@
       <c r="XFC1" s="40"/>
       <c r="XFD1" s="40"/>
     </row>
-    <row r="2" s="34" customFormat="1" ht="56.1" customHeight="1" spans="1:18">
+    <row r="2" s="34" customFormat="1" ht="23.1" customHeight="1" spans="1:18">
       <c r="A2" s="42" t="s">
         <v>3</v>
       </c>
@@ -31278,6 +31376,12 @@
         <v>&lt;/div&gt;
 &lt;/div&gt;
   &lt;script&gt;
+    function playmp3(url) {
+    // 创建 Audio 对象
+    var audio = new Audio(url);
+    // 播放音乐
+    audio.play();
+    }
     function sendLinkText(event) {
       event.preventDefault(); // 阻止默认的链接跳转行为
       var linkText = event.target.href
@@ -31305,6 +31409,7 @@
       .catch(function(error) {
         console.error('Error:', error);
       });
+      playmp3("../static/click.mp3")
   }
 function sendPostRequest(url, data) {
   return fetch(url, {
@@ -31374,7 +31479,7 @@
     <row r="14" hidden="1"/>
     <row r="15" hidden="1"/>
     <row r="16" hidden="1"/>
-    <row r="17" ht="38.55" hidden="1" customHeight="1" spans="8:18">
+    <row r="17" ht="38.65" hidden="1" customHeight="1" spans="8:18">
       <c r="H17" s="40"/>
       <c r="I17" s="39"/>
       <c r="J17" s="40"/>
@@ -31387,7 +31492,7 @@
       <c r="Q17" s="40"/>
       <c r="R17" s="40"/>
     </row>
-    <row r="18" ht="37.95" hidden="1" customHeight="1" spans="1:18">
+    <row r="18" ht="37.9" hidden="1" customHeight="1" spans="1:18">
       <c r="A18" s="48"/>
       <c r="B18" s="49"/>
       <c r="C18" s="50"/>
@@ -31459,7 +31564,7 @@
       <c r="S19" s="65"/>
       <c r="T19" s="65"/>
     </row>
-    <row r="20" s="36" customFormat="1" ht="23.55" customHeight="1" spans="1:21">
+    <row r="20" s="36" customFormat="1" ht="23.65" customHeight="1" spans="1:21">
       <c r="A20" s="55" t="s">
         <v>62</v>
       </c>
@@ -31494,7 +31599,7 @@
       <c r="T20" s="92"/>
       <c r="U20" s="92"/>
     </row>
-    <row r="21" s="33" customFormat="1" ht="26.55" customHeight="1" spans="1:19">
+    <row r="21" s="33" customFormat="1" ht="26.65" customHeight="1" spans="1:19">
       <c r="A21" s="59" t="s">
         <v>58</v>
       </c>
@@ -31541,13 +31646,13 @@
       <c r="P21" s="89"/>
       <c r="S21" s="40"/>
     </row>
-    <row r="22" s="33" customFormat="1" ht="16" customHeight="1" spans="1:19">
+    <row r="22" s="33" customFormat="1" ht="15.95" customHeight="1" spans="1:19">
       <c r="A22" s="66" t="s">
         <v>69</v>
       </c>
       <c r="B22" s="67" t="str">
         <f>IF(ISERROR(VLOOKUP(A22,常用代码!C:F,4,FALSE)),"",VLOOKUP(A22,常用代码!C:F,4,FALSE))</f>
-        <v/>
+        <v>参数04：网站名；参数05：网址</v>
       </c>
       <c r="C22" s="65"/>
       <c r="D22" s="62" t="s">
@@ -31559,8 +31664,13 @@
       <c r="F22" s="62">
         <v>1</v>
       </c>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
+      <c r="G22" s="62" t="str">
+        <f t="shared" ref="G22:G30" si="0">"\jb\打开?路径="&amp;E22</f>
+        <v>\jb\打开?路径=\jb\打印?文件=D:\Seafile\私人资料库\个人研究\每日一卷\每日一卷_样卷.docx</v>
+      </c>
+      <c r="H22" s="62" t="s">
+        <v>72</v>
+      </c>
       <c r="I22" s="62"/>
       <c r="J22" s="62"/>
       <c r="K22" s="90"/>
@@ -31571,25 +31681,24 @@
       <c r="P22" s="89"/>
       <c r="S22" s="40"/>
     </row>
-    <row r="23" s="33" customFormat="1" ht="16" customHeight="1" spans="1:19">
+    <row r="23" s="33" customFormat="1" ht="15.95" customHeight="1" spans="1:19">
       <c r="A23" s="66" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B23" s="67" t="str">
         <f>IF(ISERROR(VLOOKUP(A23,常用代码!C:F,4,FALSE)),"",VLOOKUP(A23,常用代码!C:F,4,FALSE))</f>
-        <v/>
+        <v>无参数</v>
       </c>
       <c r="C23" s="65"/>
       <c r="D23" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="62">
-        <v>2</v>
-      </c>
-      <c r="G23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>\jb\打开?路径=</v>
+      </c>
       <c r="H23" s="62"/>
       <c r="I23" s="62"/>
       <c r="J23" s="62"/>
@@ -31601,13 +31710,13 @@
       <c r="P23" s="89"/>
       <c r="S23" s="40"/>
     </row>
-    <row r="24" s="33" customFormat="1" ht="16" customHeight="1" spans="1:19">
+    <row r="24" s="33" customFormat="1" ht="15.95" customHeight="1" spans="1:19">
       <c r="A24" s="66" t="s">
         <v>69</v>
       </c>
       <c r="B24" s="67" t="str">
         <f>IF(ISERROR(VLOOKUP(A24,常用代码!C:F,4,FALSE)),"",VLOOKUP(A24,常用代码!C:F,4,FALSE))</f>
-        <v/>
+        <v>参数04：网站名；参数05：网址</v>
       </c>
       <c r="C24" s="65"/>
       <c r="D24" s="62" t="s">
@@ -31619,8 +31728,13 @@
       <c r="F24" s="62">
         <v>3</v>
       </c>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
+      <c r="G24" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>\jb\打开?路径=\jb\打开?路径=http:\\www.weather.com.cn/weather1d/101210610.shtml#input</v>
+      </c>
+      <c r="H24" s="62" t="s">
+        <v>76</v>
+      </c>
       <c r="I24" s="62"/>
       <c r="J24" s="62"/>
       <c r="K24" s="90"/>
@@ -31631,26 +31745,31 @@
       <c r="P24" s="89"/>
       <c r="S24" s="40"/>
     </row>
-    <row r="25" s="33" customFormat="1" ht="16" customHeight="1" spans="1:19">
+    <row r="25" s="33" customFormat="1" ht="15.95" customHeight="1" spans="1:19">
       <c r="A25" s="66" t="s">
         <v>69</v>
       </c>
       <c r="B25" s="67" t="str">
         <f>IF(ISERROR(VLOOKUP(A25,常用代码!C:F,4,FALSE)),"",VLOOKUP(A25,常用代码!C:F,4,FALSE))</f>
-        <v/>
+        <v>参数04：网站名；参数05：网址</v>
       </c>
       <c r="C25" s="65"/>
       <c r="D25" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="68" t="s">
         <v>77</v>
       </c>
+      <c r="E25" s="62" t="s">
+        <v>78</v>
+      </c>
       <c r="F25" s="62">
-        <v>4</v>
-      </c>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
+        <v>2</v>
+      </c>
+      <c r="G25" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>\jb\打开?路径=\jb\打开?路径=%r34%\1王进利私人资料\0个人保密文件\局域网文件管理.ahk</v>
+      </c>
+      <c r="H25" s="62" t="s">
+        <v>79</v>
+      </c>
       <c r="I25" s="62"/>
       <c r="J25" s="62"/>
       <c r="K25" s="90"/>
@@ -31661,22 +31780,31 @@
       <c r="P25" s="89"/>
       <c r="S25" s="40"/>
     </row>
-    <row r="26" s="33" customFormat="1" ht="16" customHeight="1" spans="1:19">
+    <row r="26" s="33" customFormat="1" ht="15.95" customHeight="1" spans="1:19">
       <c r="A26" s="66" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B26" s="67" t="str">
         <f>IF(ISERROR(VLOOKUP(A26,常用代码!C:F,4,FALSE)),"",VLOOKUP(A26,常用代码!C:F,4,FALSE))</f>
-        <v/>
+        <v>参数04：网站名；参数05：网址</v>
       </c>
       <c r="C26" s="65"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
+      <c r="D26" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="62" t="s">
+        <v>82</v>
+      </c>
       <c r="F26" s="62">
-        <v>5</v>
-      </c>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
+        <v>13</v>
+      </c>
+      <c r="G26" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>\jb\打开?路径=\jb</v>
+      </c>
+      <c r="H26" s="68" t="s">
+        <v>83</v>
+      </c>
       <c r="I26" s="62"/>
       <c r="J26" s="62"/>
       <c r="K26" s="90"/>
@@ -31687,26 +31815,31 @@
       <c r="P26" s="89"/>
       <c r="S26" s="40"/>
     </row>
-    <row r="27" s="33" customFormat="1" ht="16" customHeight="1" spans="1:19">
+    <row r="27" s="33" customFormat="1" ht="15.95" customHeight="1" spans="1:19">
       <c r="A27" s="66" t="s">
         <v>69</v>
       </c>
       <c r="B27" s="67" t="str">
         <f>IF(ISERROR(VLOOKUP(A27,常用代码!C:F,4,FALSE)),"",VLOOKUP(A27,常用代码!C:F,4,FALSE))</f>
-        <v/>
+        <v>参数04：网站名；参数05：网址</v>
       </c>
       <c r="C27" s="65"/>
       <c r="D27" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" s="69" t="s">
-        <v>79</v>
+        <v>84</v>
+      </c>
+      <c r="E27" s="62" t="s">
+        <v>85</v>
       </c>
       <c r="F27" s="62">
-        <v>6</v>
-      </c>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
+        <v>15</v>
+      </c>
+      <c r="G27" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>\jb\打开?路径=\jb\打开?路径=%r34%\个人研究\APIHub\py\templates\网址生成.xlsx</v>
+      </c>
+      <c r="H27" s="62" t="s">
+        <v>86</v>
+      </c>
       <c r="I27" s="62"/>
       <c r="J27" s="62"/>
       <c r="K27" s="90"/>
@@ -31717,26 +31850,31 @@
       <c r="P27" s="89"/>
       <c r="S27" s="40"/>
     </row>
-    <row r="28" s="33" customFormat="1" ht="16" customHeight="1" spans="1:19">
+    <row r="28" s="33" customFormat="1" ht="15.95" customHeight="1" spans="1:19">
       <c r="A28" s="66" t="s">
         <v>69</v>
       </c>
       <c r="B28" s="67" t="str">
         <f>IF(ISERROR(VLOOKUP(A28,常用代码!C:F,4,FALSE)),"",VLOOKUP(A28,常用代码!C:F,4,FALSE))</f>
-        <v/>
+        <v>参数04：网站名；参数05：网址</v>
       </c>
       <c r="C28" s="65"/>
       <c r="D28" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="70" t="s">
-        <v>81</v>
+        <v>87</v>
+      </c>
+      <c r="E28" s="69" t="s">
+        <v>88</v>
       </c>
       <c r="F28" s="62">
-        <v>7</v>
-      </c>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
+        <v>6</v>
+      </c>
+      <c r="G28" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>\jb\打开?路径=\jb\打开?路径=%r34%\1王进利私人资料\0个人保密文件\打开191重要资料.bat</v>
+      </c>
+      <c r="H28" s="69" t="s">
+        <v>89</v>
+      </c>
       <c r="I28" s="62"/>
       <c r="J28" s="62"/>
       <c r="K28" s="90"/>
@@ -31747,26 +31885,31 @@
       <c r="P28" s="89"/>
       <c r="S28" s="40"/>
     </row>
-    <row r="29" s="33" customFormat="1" ht="16" customHeight="1" spans="1:19">
+    <row r="29" s="33" customFormat="1" ht="15.95" customHeight="1" spans="1:19">
       <c r="A29" s="66" t="s">
         <v>69</v>
       </c>
       <c r="B29" s="67" t="str">
         <f>IF(ISERROR(VLOOKUP(A29,常用代码!C:F,4,FALSE)),"",VLOOKUP(A29,常用代码!C:F,4,FALSE))</f>
-        <v/>
+        <v>参数04：网站名；参数05：网址</v>
       </c>
       <c r="C29" s="65"/>
       <c r="D29" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" s="70" t="s">
-        <v>83</v>
+        <v>90</v>
+      </c>
+      <c r="E29" s="69" t="s">
+        <v>91</v>
       </c>
       <c r="F29" s="62">
-        <v>8</v>
-      </c>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
+        <v>4</v>
+      </c>
+      <c r="G29" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>\jb\打开?路径=\jb\下载并运行程序?程序名=锁屏</v>
+      </c>
+      <c r="H29" s="70" t="s">
+        <v>92</v>
+      </c>
       <c r="I29" s="62"/>
       <c r="J29" s="62"/>
       <c r="K29" s="90"/>
@@ -31777,25 +31920,28 @@
       <c r="P29" s="89"/>
       <c r="S29" s="40"/>
     </row>
-    <row r="30" s="33" customFormat="1" ht="16" customHeight="1" spans="1:19">
+    <row r="30" s="33" customFormat="1" ht="15.95" customHeight="1" spans="1:19">
       <c r="A30" s="66" t="s">
         <v>69</v>
       </c>
       <c r="B30" s="67" t="str">
         <f>IF(ISERROR(VLOOKUP(A30,常用代码!C:F,4,FALSE)),"",VLOOKUP(A30,常用代码!C:F,4,FALSE))</f>
-        <v/>
+        <v>参数04：网站名；参数05：网址</v>
       </c>
       <c r="C30" s="65"/>
       <c r="D30" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="62" t="s">
-        <v>85</v>
+        <v>93</v>
+      </c>
+      <c r="E30" t="s">
+        <v>94</v>
       </c>
       <c r="F30" s="62">
-        <v>7</v>
-      </c>
-      <c r="G30" s="62"/>
+        <v>5</v>
+      </c>
+      <c r="G30" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>\jb\打开?路径=\jb\打开?路径=https:\\kycxfwpt.tzc.edu.cn/userAction!do_casLogin.action</v>
+      </c>
       <c r="H30" s="62"/>
       <c r="I30" s="62"/>
       <c r="J30" s="62"/>
@@ -31807,26 +31953,31 @@
       <c r="P30" s="89"/>
       <c r="S30" s="40"/>
     </row>
-    <row r="31" s="33" customFormat="1" ht="16" customHeight="1" spans="1:19">
+    <row r="31" s="33" customFormat="1" ht="15.95" customHeight="1" spans="1:19">
       <c r="A31" s="66" t="s">
         <v>69</v>
       </c>
       <c r="B31" s="67" t="str">
         <f>IF(ISERROR(VLOOKUP(A31,常用代码!C:F,4,FALSE)),"",VLOOKUP(A31,常用代码!C:F,4,FALSE))</f>
-        <v/>
+        <v>参数04：网站名；参数05：网址</v>
       </c>
       <c r="C31" s="65"/>
       <c r="D31" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="62" t="s">
-        <v>33</v>
+        <v>95</v>
+      </c>
+      <c r="E31" s="71" t="s">
+        <v>96</v>
       </c>
       <c r="F31" s="62">
-        <v>10</v>
-      </c>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
+        <v>7</v>
+      </c>
+      <c r="G31" s="62" t="str">
+        <f t="shared" ref="G31:G36" si="1">"\jb\打开?路径="&amp;E31</f>
+        <v>\jb\打开?路径=\jb\打开?路径=%r34%\0存档文件\老黄牛存档文件.xlsx</v>
+      </c>
+      <c r="H31" s="71" t="s">
+        <v>97</v>
+      </c>
       <c r="I31" s="62"/>
       <c r="J31" s="62"/>
       <c r="K31" s="90"/>
@@ -31837,26 +31988,31 @@
       <c r="P31" s="89"/>
       <c r="S31" s="40"/>
     </row>
-    <row r="32" s="33" customFormat="1" ht="16" customHeight="1" spans="1:19">
+    <row r="32" s="33" customFormat="1" ht="15.95" customHeight="1" spans="1:19">
       <c r="A32" s="66" t="s">
         <v>69</v>
       </c>
       <c r="B32" s="67" t="str">
         <f>IF(ISERROR(VLOOKUP(A32,常用代码!C:F,4,FALSE)),"",VLOOKUP(A32,常用代码!C:F,4,FALSE))</f>
-        <v/>
+        <v>参数04：网站名；参数05：网址</v>
       </c>
       <c r="C32" s="65"/>
       <c r="D32" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="62" t="s">
-        <v>35</v>
+        <v>98</v>
+      </c>
+      <c r="E32" s="71" t="s">
+        <v>99</v>
       </c>
       <c r="F32" s="62">
-        <v>11</v>
-      </c>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
+        <v>8</v>
+      </c>
+      <c r="G32" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>\jb\打开?路径=\jb\打开?路径=%r34%\分类工作\行政_人文行政杂事\人文行政杂事.xlsm</v>
+      </c>
+      <c r="H32" s="71" t="s">
+        <v>100</v>
+      </c>
       <c r="I32" s="62"/>
       <c r="J32" s="62"/>
       <c r="K32" s="90"/>
@@ -31867,26 +32023,31 @@
       <c r="P32" s="89"/>
       <c r="S32" s="40"/>
     </row>
-    <row r="33" s="33" customFormat="1" ht="16" customHeight="1" spans="1:19">
+    <row r="33" s="33" customFormat="1" ht="15.95" customHeight="1" spans="1:19">
       <c r="A33" s="66" t="s">
         <v>69</v>
       </c>
       <c r="B33" s="67" t="str">
         <f>IF(ISERROR(VLOOKUP(A33,常用代码!C:F,4,FALSE)),"",VLOOKUP(A33,常用代码!C:F,4,FALSE))</f>
-        <v/>
+        <v>参数04：网站名；参数05：网址</v>
       </c>
       <c r="C33" s="65"/>
       <c r="D33" s="62" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="E33" s="62" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="F33" s="62">
-        <v>12</v>
-      </c>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
+        <v>7</v>
+      </c>
+      <c r="G33" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>\jb\打开?路径=\jb\打开?路径=%r34%\分类工作\科研_项目申报\正在申报的项目.xlsm</v>
+      </c>
+      <c r="H33" s="62" t="s">
+        <v>103</v>
+      </c>
       <c r="I33" s="62"/>
       <c r="J33" s="62"/>
       <c r="K33" s="90"/>
@@ -31897,26 +32058,31 @@
       <c r="P33" s="89"/>
       <c r="S33" s="40"/>
     </row>
-    <row r="34" s="33" customFormat="1" ht="16" customHeight="1" spans="1:19">
+    <row r="34" s="33" customFormat="1" ht="15.95" customHeight="1" spans="1:19">
       <c r="A34" s="66" t="s">
         <v>69</v>
       </c>
       <c r="B34" s="67" t="str">
         <f>IF(ISERROR(VLOOKUP(A34,常用代码!C:F,4,FALSE)),"",VLOOKUP(A34,常用代码!C:F,4,FALSE))</f>
-        <v/>
+        <v>参数04：网站名；参数05：网址</v>
       </c>
       <c r="C34" s="65"/>
-      <c r="D34" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="71" t="s">
-        <v>87</v>
+      <c r="D34" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="62" t="s">
+        <v>105</v>
       </c>
       <c r="F34" s="62">
-        <v>13</v>
-      </c>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
+        <v>10</v>
+      </c>
+      <c r="G34" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>\jb\打开?路径=\jb\打开?路径=%r34%\分类工作\科研_学术讲座\人文学术讲座.xlsm</v>
+      </c>
+      <c r="H34" s="62" t="s">
+        <v>33</v>
+      </c>
       <c r="I34" s="62"/>
       <c r="J34" s="62"/>
       <c r="K34" s="90"/>
@@ -31927,22 +32093,31 @@
       <c r="P34" s="89"/>
       <c r="S34" s="40"/>
     </row>
-    <row r="35" s="33" customFormat="1" ht="16" customHeight="1" spans="1:19">
+    <row r="35" s="33" customFormat="1" ht="15.95" customHeight="1" spans="1:19">
       <c r="A35" s="66" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B35" s="67" t="str">
         <f>IF(ISERROR(VLOOKUP(A35,常用代码!C:F,4,FALSE)),"",VLOOKUP(A35,常用代码!C:F,4,FALSE))</f>
-        <v>无参数</v>
+        <v>参数04：网站名；参数05：网址</v>
       </c>
       <c r="C35" s="65"/>
       <c r="D35" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
+        <v>41</v>
+      </c>
+      <c r="E35" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="62">
+        <v>11</v>
+      </c>
+      <c r="G35" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>\jb\打开?路径=\jb\打开?路径=https:\\i.tzc.edu.cn/home</v>
+      </c>
+      <c r="H35" s="62" t="s">
+        <v>35</v>
+      </c>
       <c r="I35" s="62"/>
       <c r="J35" s="62"/>
       <c r="K35" s="90"/>
@@ -31953,26 +32128,31 @@
       <c r="P35" s="89"/>
       <c r="S35" s="40"/>
     </row>
-    <row r="36" s="33" customFormat="1" ht="16" customHeight="1" spans="1:19">
+    <row r="36" s="33" customFormat="1" ht="15.95" customHeight="1" spans="1:19">
       <c r="A36" s="66" t="s">
         <v>69</v>
       </c>
       <c r="B36" s="67" t="str">
         <f>IF(ISERROR(VLOOKUP(A36,常用代码!C:F,4,FALSE)),"",VLOOKUP(A36,常用代码!C:F,4,FALSE))</f>
-        <v/>
+        <v>参数04：网站名；参数05：网址</v>
       </c>
       <c r="C36" s="65"/>
       <c r="D36" s="62" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="E36" s="62" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="F36" s="62">
-        <v>15</v>
-      </c>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
+        <v>12</v>
+      </c>
+      <c r="G36" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>\jb\打开?路径=\jb\打开?路径=D:\index.lnk</v>
+      </c>
+      <c r="H36" s="62" t="s">
+        <v>36</v>
+      </c>
       <c r="I36" s="62"/>
       <c r="J36" s="62"/>
       <c r="K36" s="90"/>
@@ -31983,17 +32163,21 @@
       <c r="P36" s="89"/>
       <c r="S36" s="40"/>
     </row>
-    <row r="37" s="33" customFormat="1" ht="19" customHeight="1" spans="1:19">
+    <row r="37" s="33" customFormat="1" ht="15.95" customHeight="1" spans="1:19">
       <c r="A37" s="66" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B37" s="67" t="str">
         <f>IF(ISERROR(VLOOKUP(A37,常用代码!C:F,4,FALSE)),"",VLOOKUP(A37,常用代码!C:F,4,FALSE))</f>
-        <v>无参数</v>
+        <v>参数04：网站名；参数05：网址</v>
       </c>
       <c r="C37" s="65"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
+      <c r="D37" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="62" t="s">
+        <v>109</v>
+      </c>
       <c r="F37" s="62"/>
       <c r="G37" s="62"/>
       <c r="H37" s="62"/>
@@ -32007,123 +32191,89 @@
       <c r="P37" s="89"/>
       <c r="S37" s="40"/>
     </row>
-    <row r="38" s="33" customFormat="1" spans="1:19">
-      <c r="A38" s="72"/>
-      <c r="B38" s="73" t="str">
+    <row r="38" s="33" customFormat="1" ht="15.95" customHeight="1" spans="1:19">
+      <c r="A38" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="67" t="str">
         <f>IF(ISERROR(VLOOKUP(A38,常用代码!C:F,4,FALSE)),"",VLOOKUP(A38,常用代码!C:F,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="33" t="str">
-        <f>IF(ISERROR(VLOOKUP(C38,通讯录!A:H,3,FALSE)),"",VLOOKUP(C38,通讯录!A:H,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="E38" s="74" t="str">
-        <f>IF(ISERROR(VLOOKUP(C38,通讯录!A:H,7,FALSE)),"",VLOOKUP(C38,通讯录!A:H,7,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F38" s="40" t="str">
-        <f>IF(ISERROR(VLOOKUP(C38,通讯录!A:H,5,FALSE)),"",VLOOKUP(C38,通讯录!A:H,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G38" s="33" t="str">
-        <f>IF(ISERROR(VLOOKUP(C38,通讯录!A:H,6,FALSE)),"",VLOOKUP(C38,通讯录!A:H,6,FALSE))</f>
-        <v/>
-      </c>
-      <c r="H38" s="75" t="str">
-        <f>IF(ISERROR(VLOOKUP(C38,通讯录!A:H,4,FALSE)),"",VLOOKUP(C38,通讯录!A:H,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="I38" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP(C38,通讯录!A:H,8,FALSE)),"",VLOOKUP(C38,通讯录!A:H,8,FALSE))</f>
-        <v/>
-      </c>
-      <c r="J38" s="33" t="str">
-        <f>IF(ISERROR(VLOOKUP(C38,通讯录!A:H,2,FALSE)),"",VLOOKUP(C38,通讯录!A:H,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="O38" s="91"/>
+        <v>参数04：网站名；参数05：网址</v>
+      </c>
+      <c r="C38" s="65"/>
+      <c r="D38" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="90"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="62"/>
+      <c r="O38" s="88"/>
+      <c r="P38" s="89"/>
       <c r="S38" s="40"/>
     </row>
-    <row r="39" s="33" customFormat="1" spans="1:19">
-      <c r="A39" s="72"/>
-      <c r="B39" s="73" t="str">
+    <row r="39" s="33" customFormat="1" ht="15.95" customHeight="1" spans="1:19">
+      <c r="A39" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="67" t="str">
         <f>IF(ISERROR(VLOOKUP(A39,常用代码!C:F,4,FALSE)),"",VLOOKUP(A39,常用代码!C:F,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="33" t="str">
-        <f>IF(ISERROR(VLOOKUP(C39,通讯录!A:H,3,FALSE)),"",VLOOKUP(C39,通讯录!A:H,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="E39" s="74" t="str">
-        <f>IF(ISERROR(VLOOKUP(C39,通讯录!A:H,7,FALSE)),"",VLOOKUP(C39,通讯录!A:H,7,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F39" s="40" t="str">
-        <f>IF(ISERROR(VLOOKUP(C39,通讯录!A:H,5,FALSE)),"",VLOOKUP(C39,通讯录!A:H,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G39" s="33" t="str">
-        <f>IF(ISERROR(VLOOKUP(C39,通讯录!A:H,6,FALSE)),"",VLOOKUP(C39,通讯录!A:H,6,FALSE))</f>
-        <v/>
-      </c>
-      <c r="H39" s="75" t="str">
-        <f>IF(ISERROR(VLOOKUP(C39,通讯录!A:H,4,FALSE)),"",VLOOKUP(C39,通讯录!A:H,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="I39" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP(C39,通讯录!A:H,8,FALSE)),"",VLOOKUP(C39,通讯录!A:H,8,FALSE))</f>
-        <v/>
-      </c>
-      <c r="J39" s="33" t="str">
-        <f>IF(ISERROR(VLOOKUP(C39,通讯录!A:H,2,FALSE)),"",VLOOKUP(C39,通讯录!A:H,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="O39" s="91"/>
+        <v>参数04：网站名；参数05：网址</v>
+      </c>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="90"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="62"/>
+      <c r="O39" s="88"/>
+      <c r="P39" s="89"/>
       <c r="S39" s="40"/>
     </row>
-    <row r="40" s="33" customFormat="1" spans="1:19">
-      <c r="A40" s="72"/>
-      <c r="B40" s="73" t="str">
+    <row r="40" s="33" customFormat="1" ht="18.95" customHeight="1" spans="1:19">
+      <c r="A40" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="67" t="str">
         <f>IF(ISERROR(VLOOKUP(A40,常用代码!C:F,4,FALSE)),"",VLOOKUP(A40,常用代码!C:F,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="33" t="str">
-        <f>IF(ISERROR(VLOOKUP(C40,通讯录!A:H,3,FALSE)),"",VLOOKUP(C40,通讯录!A:H,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="E40" s="74" t="str">
-        <f>IF(ISERROR(VLOOKUP(C40,通讯录!A:H,7,FALSE)),"",VLOOKUP(C40,通讯录!A:H,7,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F40" s="40" t="str">
-        <f>IF(ISERROR(VLOOKUP(C40,通讯录!A:H,5,FALSE)),"",VLOOKUP(C40,通讯录!A:H,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G40" s="33" t="str">
-        <f>IF(ISERROR(VLOOKUP(C40,通讯录!A:H,6,FALSE)),"",VLOOKUP(C40,通讯录!A:H,6,FALSE))</f>
-        <v/>
-      </c>
-      <c r="H40" s="75" t="str">
-        <f>IF(ISERROR(VLOOKUP(C40,通讯录!A:H,4,FALSE)),"",VLOOKUP(C40,通讯录!A:H,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="I40" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP(C40,通讯录!A:H,8,FALSE)),"",VLOOKUP(C40,通讯录!A:H,8,FALSE))</f>
-        <v/>
-      </c>
-      <c r="J40" s="33" t="str">
-        <f>IF(ISERROR(VLOOKUP(C40,通讯录!A:H,2,FALSE)),"",VLOOKUP(C40,通讯录!A:H,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="O40" s="89"/>
+        <v>无参数</v>
+      </c>
+      <c r="C40" s="65"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="90"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="62"/>
+      <c r="O40" s="88"/>
+      <c r="P40" s="89"/>
       <c r="S40" s="40"/>
     </row>
     <row r="41" s="33" customFormat="1" spans="1:19">
-      <c r="A41" s="76"/>
-      <c r="B41" s="77" t="str">
+      <c r="A41" s="72"/>
+      <c r="B41" s="73" t="str">
         <f>IF(ISERROR(VLOOKUP(A41,常用代码!C:F,4,FALSE)),"",VLOOKUP(A41,常用代码!C:F,4,FALSE))</f>
         <v/>
       </c>
@@ -32132,9 +32282,8 @@
         <f>IF(ISERROR(VLOOKUP(C41,通讯录!A:H,3,FALSE)),"",VLOOKUP(C41,通讯录!A:H,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E41" s="74" t="str">
-        <f>IF(ISERROR(VLOOKUP(C41,通讯录!A:H,7,FALSE)),"",VLOOKUP(C41,通讯录!A:H,7,FALSE))</f>
-        <v/>
+      <c r="E41" s="74" t="s">
+        <v>114</v>
       </c>
       <c r="F41" s="40" t="str">
         <f>IF(ISERROR(VLOOKUP(C41,通讯录!A:H,5,FALSE)),"",VLOOKUP(C41,通讯录!A:H,5,FALSE))</f>
@@ -32156,7 +32305,7 @@
         <f>IF(ISERROR(VLOOKUP(C41,通讯录!A:H,2,FALSE)),"",VLOOKUP(C41,通讯录!A:H,2,FALSE))</f>
         <v/>
       </c>
-      <c r="O41" s="89"/>
+      <c r="O41" s="91"/>
       <c r="S41" s="40"/>
     </row>
     <row r="42" s="33" customFormat="1" spans="1:19">
@@ -32194,7 +32343,7 @@
         <f>IF(ISERROR(VLOOKUP(C42,通讯录!A:H,2,FALSE)),"",VLOOKUP(C42,通讯录!A:H,2,FALSE))</f>
         <v/>
       </c>
-      <c r="O42" s="89"/>
+      <c r="O42" s="91"/>
       <c r="S42" s="40"/>
     </row>
     <row r="43" s="33" customFormat="1" spans="1:19">
@@ -32236,8 +32385,8 @@
       <c r="S43" s="40"/>
     </row>
     <row r="44" s="33" customFormat="1" spans="1:19">
-      <c r="A44" s="72"/>
-      <c r="B44" s="73" t="str">
+      <c r="A44" s="76"/>
+      <c r="B44" s="77" t="str">
         <f>IF(ISERROR(VLOOKUP(A44,常用代码!C:F,4,FALSE)),"",VLOOKUP(A44,常用代码!C:F,4,FALSE))</f>
         <v/>
       </c>
@@ -32280,13 +32429,11 @@
         <v/>
       </c>
       <c r="C45" s="39"/>
-      <c r="D45" s="33" t="str">
-        <f>IF(ISERROR(VLOOKUP(C45,通讯录!A:H,3,FALSE)),"",VLOOKUP(C45,通讯录!A:H,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="E45" s="74" t="str">
-        <f>IF(ISERROR(VLOOKUP(C45,通讯录!A:H,7,FALSE)),"",VLOOKUP(C45,通讯录!A:H,7,FALSE))</f>
-        <v/>
+      <c r="D45" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="62" t="s">
+        <v>116</v>
       </c>
       <c r="F45" s="40" t="str">
         <f>IF(ISERROR(VLOOKUP(C45,通讯录!A:H,5,FALSE)),"",VLOOKUP(C45,通讯录!A:H,5,FALSE))</f>
@@ -32318,13 +32465,11 @@
         <v/>
       </c>
       <c r="C46" s="39"/>
-      <c r="D46" s="33" t="str">
-        <f>IF(ISERROR(VLOOKUP(C46,通讯录!A:H,3,FALSE)),"",VLOOKUP(C46,通讯录!A:H,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="E46" s="74" t="str">
-        <f>IF(ISERROR(VLOOKUP(C46,通讯录!A:H,7,FALSE)),"",VLOOKUP(C46,通讯录!A:H,7,FALSE))</f>
-        <v/>
+      <c r="D46" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="62" t="s">
+        <v>78</v>
       </c>
       <c r="F46" s="40" t="str">
         <f>IF(ISERROR(VLOOKUP(C46,通讯录!A:H,5,FALSE)),"",VLOOKUP(C46,通讯录!A:H,5,FALSE))</f>
@@ -32389,7 +32534,7 @@
     </row>
     <row r="48" s="33" customFormat="1" spans="1:19">
       <c r="A48" s="72"/>
-      <c r="B48" s="33" t="str">
+      <c r="B48" s="73" t="str">
         <f>IF(ISERROR(VLOOKUP(A48,常用代码!C:F,4,FALSE)),"",VLOOKUP(A48,常用代码!C:F,4,FALSE))</f>
         <v/>
       </c>
@@ -32427,7 +32572,7 @@
     </row>
     <row r="49" s="33" customFormat="1" spans="1:19">
       <c r="A49" s="72"/>
-      <c r="B49" s="33" t="str">
+      <c r="B49" s="73" t="str">
         <f>IF(ISERROR(VLOOKUP(A49,常用代码!C:F,4,FALSE)),"",VLOOKUP(A49,常用代码!C:F,4,FALSE))</f>
         <v/>
       </c>
@@ -32465,7 +32610,7 @@
     </row>
     <row r="50" s="33" customFormat="1" spans="1:19">
       <c r="A50" s="72"/>
-      <c r="B50" s="33" t="str">
+      <c r="B50" s="73" t="str">
         <f>IF(ISERROR(VLOOKUP(A50,常用代码!C:F,4,FALSE)),"",VLOOKUP(A50,常用代码!C:F,4,FALSE))</f>
         <v/>
       </c>
@@ -33002,11 +33147,34 @@
         <v/>
       </c>
       <c r="C64" s="39"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="40"/>
-      <c r="I64" s="41"/>
+      <c r="D64" s="33" t="str">
+        <f>IF(ISERROR(VLOOKUP(C64,通讯录!A:H,3,FALSE)),"",VLOOKUP(C64,通讯录!A:H,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E64" s="74" t="str">
+        <f>IF(ISERROR(VLOOKUP(C64,通讯录!A:H,7,FALSE)),"",VLOOKUP(C64,通讯录!A:H,7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F64" s="40" t="str">
+        <f>IF(ISERROR(VLOOKUP(C64,通讯录!A:H,5,FALSE)),"",VLOOKUP(C64,通讯录!A:H,5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G64" s="33" t="str">
+        <f>IF(ISERROR(VLOOKUP(C64,通讯录!A:H,6,FALSE)),"",VLOOKUP(C64,通讯录!A:H,6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H64" s="75" t="str">
+        <f>IF(ISERROR(VLOOKUP(C64,通讯录!A:H,4,FALSE)),"",VLOOKUP(C64,通讯录!A:H,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I64" s="41" t="str">
+        <f>IF(ISERROR(VLOOKUP(C64,通讯录!A:H,8,FALSE)),"",VLOOKUP(C64,通讯录!A:H,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J64" s="33" t="str">
+        <f>IF(ISERROR(VLOOKUP(C64,通讯录!A:H,2,FALSE)),"",VLOOKUP(C64,通讯录!A:H,2,FALSE))</f>
+        <v/>
+      </c>
       <c r="O64" s="89"/>
       <c r="S64" s="40"/>
     </row>
@@ -33017,11 +33185,34 @@
         <v/>
       </c>
       <c r="C65" s="39"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="40"/>
-      <c r="I65" s="41"/>
+      <c r="D65" s="33" t="str">
+        <f>IF(ISERROR(VLOOKUP(C65,通讯录!A:H,3,FALSE)),"",VLOOKUP(C65,通讯录!A:H,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E65" s="74" t="str">
+        <f>IF(ISERROR(VLOOKUP(C65,通讯录!A:H,7,FALSE)),"",VLOOKUP(C65,通讯录!A:H,7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F65" s="40" t="str">
+        <f>IF(ISERROR(VLOOKUP(C65,通讯录!A:H,5,FALSE)),"",VLOOKUP(C65,通讯录!A:H,5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G65" s="33" t="str">
+        <f>IF(ISERROR(VLOOKUP(C65,通讯录!A:H,6,FALSE)),"",VLOOKUP(C65,通讯录!A:H,6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H65" s="75" t="str">
+        <f>IF(ISERROR(VLOOKUP(C65,通讯录!A:H,4,FALSE)),"",VLOOKUP(C65,通讯录!A:H,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I65" s="41" t="str">
+        <f>IF(ISERROR(VLOOKUP(C65,通讯录!A:H,8,FALSE)),"",VLOOKUP(C65,通讯录!A:H,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J65" s="33" t="str">
+        <f>IF(ISERROR(VLOOKUP(C65,通讯录!A:H,2,FALSE)),"",VLOOKUP(C65,通讯录!A:H,2,FALSE))</f>
+        <v/>
+      </c>
       <c r="O65" s="89"/>
       <c r="S65" s="40"/>
     </row>
@@ -33032,11 +33223,34 @@
         <v/>
       </c>
       <c r="C66" s="39"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="40"/>
-      <c r="I66" s="41"/>
+      <c r="D66" s="33" t="str">
+        <f>IF(ISERROR(VLOOKUP(C66,通讯录!A:H,3,FALSE)),"",VLOOKUP(C66,通讯录!A:H,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E66" s="74" t="str">
+        <f>IF(ISERROR(VLOOKUP(C66,通讯录!A:H,7,FALSE)),"",VLOOKUP(C66,通讯录!A:H,7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F66" s="40" t="str">
+        <f>IF(ISERROR(VLOOKUP(C66,通讯录!A:H,5,FALSE)),"",VLOOKUP(C66,通讯录!A:H,5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G66" s="33" t="str">
+        <f>IF(ISERROR(VLOOKUP(C66,通讯录!A:H,6,FALSE)),"",VLOOKUP(C66,通讯录!A:H,6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H66" s="75" t="str">
+        <f>IF(ISERROR(VLOOKUP(C66,通讯录!A:H,4,FALSE)),"",VLOOKUP(C66,通讯录!A:H,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I66" s="41" t="str">
+        <f>IF(ISERROR(VLOOKUP(C66,通讯录!A:H,8,FALSE)),"",VLOOKUP(C66,通讯录!A:H,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J66" s="33" t="str">
+        <f>IF(ISERROR(VLOOKUP(C66,通讯录!A:H,2,FALSE)),"",VLOOKUP(C66,通讯录!A:H,2,FALSE))</f>
+        <v/>
+      </c>
       <c r="O66" s="89"/>
       <c r="S66" s="40"/>
     </row>
@@ -33147,6 +33361,10 @@
     </row>
     <row r="74" s="33" customFormat="1" spans="1:19">
       <c r="A74" s="72"/>
+      <c r="B74" s="33" t="str">
+        <f>IF(ISERROR(VLOOKUP(A74,常用代码!C:F,4,FALSE)),"",VLOOKUP(A74,常用代码!C:F,4,FALSE))</f>
+        <v/>
+      </c>
       <c r="C74" s="39"/>
       <c r="D74" s="40"/>
       <c r="E74" s="40"/>
@@ -33158,6 +33376,10 @@
     </row>
     <row r="75" s="33" customFormat="1" spans="1:19">
       <c r="A75" s="72"/>
+      <c r="B75" s="33" t="str">
+        <f>IF(ISERROR(VLOOKUP(A75,常用代码!C:F,4,FALSE)),"",VLOOKUP(A75,常用代码!C:F,4,FALSE))</f>
+        <v/>
+      </c>
       <c r="C75" s="39"/>
       <c r="D75" s="40"/>
       <c r="E75" s="40"/>
@@ -33169,6 +33391,10 @@
     </row>
     <row r="76" s="33" customFormat="1" spans="1:19">
       <c r="A76" s="72"/>
+      <c r="B76" s="33" t="str">
+        <f>IF(ISERROR(VLOOKUP(A76,常用代码!C:F,4,FALSE)),"",VLOOKUP(A76,常用代码!C:F,4,FALSE))</f>
+        <v/>
+      </c>
       <c r="C76" s="39"/>
       <c r="D76" s="40"/>
       <c r="E76" s="40"/>
@@ -33278,8 +33504,7 @@
       <c r="S85" s="40"/>
     </row>
     <row r="86" s="33" customFormat="1" spans="1:19">
-      <c r="A86" s="37"/>
-      <c r="B86" s="38"/>
+      <c r="A86" s="72"/>
       <c r="C86" s="39"/>
       <c r="D86" s="40"/>
       <c r="E86" s="40"/>
@@ -33290,8 +33515,7 @@
       <c r="S86" s="40"/>
     </row>
     <row r="87" s="33" customFormat="1" spans="1:19">
-      <c r="A87" s="37"/>
-      <c r="B87" s="38"/>
+      <c r="A87" s="72"/>
       <c r="C87" s="39"/>
       <c r="D87" s="40"/>
       <c r="E87" s="40"/>
@@ -33302,8 +33526,7 @@
       <c r="S87" s="40"/>
     </row>
     <row r="88" s="33" customFormat="1" spans="1:19">
-      <c r="A88" s="37"/>
-      <c r="B88" s="38"/>
+      <c r="A88" s="72"/>
       <c r="C88" s="39"/>
       <c r="D88" s="40"/>
       <c r="E88" s="40"/>
@@ -33649,15 +33872,51 @@
       <c r="O116" s="89"/>
       <c r="S116" s="40"/>
     </row>
+    <row r="117" s="33" customFormat="1" spans="1:19">
+      <c r="A117" s="37"/>
+      <c r="B117" s="38"/>
+      <c r="C117" s="39"/>
+      <c r="D117" s="40"/>
+      <c r="E117" s="40"/>
+      <c r="F117" s="40"/>
+      <c r="G117" s="40"/>
+      <c r="I117" s="41"/>
+      <c r="O117" s="89"/>
+      <c r="S117" s="40"/>
+    </row>
+    <row r="118" s="33" customFormat="1" spans="1:19">
+      <c r="A118" s="37"/>
+      <c r="B118" s="38"/>
+      <c r="C118" s="39"/>
+      <c r="D118" s="40"/>
+      <c r="E118" s="40"/>
+      <c r="F118" s="40"/>
+      <c r="G118" s="40"/>
+      <c r="I118" s="41"/>
+      <c r="O118" s="89"/>
+      <c r="S118" s="40"/>
+    </row>
+    <row r="119" s="33" customFormat="1" spans="1:19">
+      <c r="A119" s="37"/>
+      <c r="B119" s="38"/>
+      <c r="C119" s="39"/>
+      <c r="D119" s="40"/>
+      <c r="E119" s="40"/>
+      <c r="F119" s="40"/>
+      <c r="G119" s="40"/>
+      <c r="I119" s="41"/>
+      <c r="O119" s="89"/>
+      <c r="S119" s="40"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:O2"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A74:A85">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A77:A88">
       <formula1/>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 A21 A22 A23 A24 A25 A26 A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38:A73">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 A21 A22 A23 A24 A25 A26 A27 A28 A36 A37 A38 A39 A40 A29:A30 A31:A35 A41:A76">
       <formula1>常用代码!$C:$C</formula1>
     </dataValidation>
   </dataValidations>
@@ -33694,7 +33953,7 @@
         <v>45</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>47</v>
@@ -33714,77 +33973,77 @@
         <v>52</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C2" s="23">
         <v>13012340000</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="E2" s="23">
         <v>187277552</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="25" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C3" s="27">
         <v>13012340000</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="E3" s="27">
         <v>762865826</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="29" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C4" s="23">
         <v>15325860000</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="E4" s="23">
         <v>1186072620</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -33792,19 +34051,19 @@
         <v>55</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C5" s="27">
         <v>18857600000</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="E5" s="27">
         <v>3515843067</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>55</v>
@@ -33815,28 +34074,28 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="29" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C6" s="23">
         <v>1866766000</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="E6" s="23">
         <v>233332223</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -33844,19 +34103,19 @@
         <v>54</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C7" s="27">
         <v>15257650000</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="E7" s="27">
         <v>594391570</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>54</v>
@@ -33867,28 +34126,28 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="29" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C8" s="23">
         <v>15236060000</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="E8" s="23">
         <v>1327605517</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -34121,233 +34380,233 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.33333333333333" customWidth="1"/>
-    <col min="2" max="2" width="15.1083333333333" customWidth="1"/>
-    <col min="3" max="3" width="17.1083333333333" customWidth="1"/>
-    <col min="6" max="6" width="20.1083333333333" customWidth="1"/>
+    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
     </row>
     <row r="2" ht="14.25" spans="1:4">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
     </row>
     <row r="3" ht="14.25" spans="1:4">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="C14" s="16"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="C17" s="15"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="C19" s="15"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -34396,7 +34655,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -34404,128 +34663,127 @@
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.8833333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="84" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.10833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="44.1" customHeight="1" spans="1:6">
+    <row r="1" ht="44.1" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="62" customHeight="1" spans="1:6">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" ht="62.1" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="62" customHeight="1" spans="1:6">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" ht="62.1" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>166</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="62" customHeight="1" spans="1:6">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" ht="62.1" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" ht="21.95" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>170</v>
+      <c r="D5" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" ht="21.95" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>196</v>
+      </c>
       <c r="F6" s="1" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
